--- a/src/activities/data/paralympics_all_raw.xlsx
+++ b/src/activities/data/paralympics_all_raw.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{42E298C3-1EF2-0C4B-96E1-5B20F1A5FF8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0C4D568-0756-48AE-A741-FF0839D5AA1F}"/>
   <bookViews>
-    <workbookView xWindow="42735" yWindow="5700" windowWidth="16245" windowHeight="13140" xr2:uid="{CBF15B4E-2805-CD44-9DA6-567684115F1A}"/>
+    <workbookView xWindow="3610" yWindow="440" windowWidth="16920" windowHeight="10460" xr2:uid="{CBF15B4E-2805-CD44-9DA6-567684115F1A}"/>
   </bookViews>
   <sheets>
     <sheet name="games" sheetId="1" r:id="rId1"/>
@@ -3439,7 +3439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A5B346-9586-614E-9210-4DD6279EFFF5}">
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
